--- a/VR Karting/Results/2271.xlsx
+++ b/VR Karting/Results/2271.xlsx
@@ -3,24 +3,26 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="2160" windowWidth="21700" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="2160" windowWidth="21700" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PRE" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Mini 1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Word Accuracies" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Contrast Accuracies" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Mini 2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Session 2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Word Accuracies" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Contrast Accuracies" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
@@ -37,6 +39,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -48,12 +57,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -68,11 +92,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4108,7 +4135,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -4205,588 +4232,96 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.5</v>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.5</v>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.5</v>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.5</v>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
           <t>fond</t>
         </is>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="inlineStr">
-        <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="inlineStr">
-        <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="inlineStr">
-        <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="inlineStr">
-        <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="inlineStr">
-        <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="inlineStr">
-        <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="inlineStr">
-        <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="inlineStr">
-        <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="inlineStr">
-        <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="inlineStr">
-        <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="inlineStr">
-        <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="inlineStr">
-        <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="inlineStr">
-        <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="inlineStr">
-        <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="inlineStr">
-        <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="inlineStr">
-        <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="inlineStr">
-        <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4796,7 +4331,1482 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.817142</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.04203</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.268112</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.890427</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.851456</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.142647</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.774628</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.488045</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.167145</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.067261</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2.451385</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.718002</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.146423</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.338242</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.655792</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.467331</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.540329</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.302109</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2.081879</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.956909</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.842133</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.469223</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.282547</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.604187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2.101837</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.5770721</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.747864</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.7640381000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.564972</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.296173</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.577057</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.016602</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.7760010000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.016052</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.921082</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.6738281</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.316528</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2.272522</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.17572</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.284393</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.6933289</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.034393</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.222076</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.7529297</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>2.268463</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.934967</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.682953</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2.583435</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.695007</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.473999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.303009</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.9180603000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.6215515</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.793549</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.08139</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.134186</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.225941</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.9827728</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.618397</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.6381569</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.409191</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.126503</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.9627228</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.8167572</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.402191</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.780457</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.9752960000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.462639</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2.512161</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.543869</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2.453735</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.848572</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2.160828</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.884918</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.724197</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.7292023</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.606705</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.088028</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.052551</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.589508</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.772049</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.564423</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.925476</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.5981445</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.220291</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.412537</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.429123</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.23317</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.338364</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.116241</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.5875243999999999</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.13501</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.142059</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>2.152893</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.546356</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.052185</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.8200073</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.124298</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.805817</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.9378052</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.196259</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.8719177</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.6857605</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.909454</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.756958</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.7055664</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.045868</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>2.722961</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.94101</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.210693</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>2.893158</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.806976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,14 +5815,783 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CONTRAST</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
         </is>
       </c>
     </row>
@@ -4825,6 +6604,9 @@
       <c r="B2" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4835,6 +6617,9 @@
       <c r="B3" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.6071428571428571</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4845,6 +6630,9 @@
       <c r="B4" t="n">
         <v>0.5357142857142857</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4854,6 +6642,9 @@
       </c>
       <c r="B5" t="n">
         <v>0.4285714285714285</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6071428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/VR Karting/Results/2271.xlsx
+++ b/VR Karting/Results/2271.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="2160" windowWidth="21700" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="2160" windowWidth="21700" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,8 +11,10 @@
     <sheet name="Mini 1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Mini 2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Session 2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Word Accuracies" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Contrast Accuracies" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mini 3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Session 3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Word Accuracies" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Contrast Accuracies" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4333,7 +4335,7 @@
   </sheetPr>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -5806,7 +5808,1581 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.294815</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.9704895</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.981163</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.842697</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.469627</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.3805695</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.094276</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.504822</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.71637</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.9768066</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.393921</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.64122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2.190216</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.5957642</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.05687</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.074493</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.7119751</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.161835</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.483475</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.274857</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.107162</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.016251</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.562149</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.047562</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.572983</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.8942413</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.9888458</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.9343872</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.463562</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.118011</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.203644</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.6331482</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.138306</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.9868774</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.107239</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.5072327</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.5472107</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.047363</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.434601</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.597443</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.417236</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.431061</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.8598633</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.6586609</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.7118835</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.598877</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.384857</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.412415</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.9488831</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.7871094</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.5782166</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.510132</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.104828</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.9533081</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.266754</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.7775269</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.7843151</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.118305</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.5517464</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2.323898</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.522858</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.29546</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.494568</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.5981445</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.941818</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.832489</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.550926</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.8470078</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.384789</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.066338</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.287125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.155319</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.008118</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.780609</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.7080688000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.8693848</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.6669922</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.4727783</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.121063</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.103607</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.588928</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.4386597</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.9531403000000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.723877</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.349915</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.77655</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.9086303999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.205551</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.6243896</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.741333</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.393707</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.267792</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.9203491</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.5884399</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.223053</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.253784</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.073639</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.8451843</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.058929</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.9001465</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.064423</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>2.228638</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.014313</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.210999</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.9963074</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.7123718</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.4247437</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.6693726</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.9827881000000001</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.6171265</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.4358826</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.024628</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5830,6 +7406,11 @@
           <t>Session 2</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -5843,6 +7424,9 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -5856,6 +7440,9 @@
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -5869,6 +7456,9 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -5882,6 +7472,9 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -5895,6 +7488,9 @@
       <c r="C6" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -5908,6 +7504,9 @@
       <c r="C7" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -5921,6 +7520,9 @@
       <c r="C8" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -5934,6 +7536,9 @@
       <c r="C9" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -5947,6 +7552,9 @@
       <c r="C10" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -5960,6 +7568,9 @@
       <c r="C11" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -5973,6 +7584,9 @@
       <c r="C12" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -5986,6 +7600,9 @@
       <c r="C13" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -5999,6 +7616,9 @@
       <c r="C14" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -6012,6 +7632,9 @@
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -6025,6 +7648,9 @@
       <c r="C16" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -6038,6 +7664,9 @@
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -6051,6 +7680,9 @@
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -6064,6 +7696,9 @@
       <c r="C19" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -6077,6 +7712,9 @@
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -6090,6 +7728,9 @@
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -6103,6 +7744,9 @@
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -6116,6 +7760,9 @@
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -6129,6 +7776,9 @@
       <c r="C24" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -6142,6 +7792,9 @@
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -6155,6 +7808,9 @@
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D26" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -6168,6 +7824,9 @@
       <c r="C27" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -6181,6 +7840,9 @@
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D28" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -6194,6 +7856,9 @@
       <c r="C29" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D29" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -6207,6 +7872,9 @@
       <c r="C30" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -6220,6 +7888,9 @@
       <c r="C31" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -6233,6 +7904,9 @@
       <c r="C32" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D32" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -6246,6 +7920,9 @@
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D33" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -6259,6 +7936,9 @@
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -6272,6 +7952,9 @@
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D35" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -6285,6 +7968,9 @@
       <c r="C36" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -6298,6 +7984,9 @@
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D37" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -6311,6 +8000,9 @@
       <c r="C38" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D38" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -6324,6 +8016,9 @@
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D39" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -6337,6 +8032,9 @@
       <c r="C40" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -6350,6 +8048,9 @@
       <c r="C41" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D41" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -6363,6 +8064,9 @@
       <c r="C42" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -6376,6 +8080,9 @@
       <c r="C43" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -6389,6 +8096,9 @@
       <c r="C44" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D44" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -6402,6 +8112,9 @@
       <c r="C45" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -6415,6 +8128,9 @@
       <c r="C46" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -6428,6 +8144,9 @@
       <c r="C47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -6441,6 +8160,9 @@
       <c r="C48" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -6454,6 +8176,9 @@
       <c r="C49" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -6467,6 +8192,9 @@
       <c r="C50" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -6480,6 +8208,9 @@
       <c r="C51" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -6493,6 +8224,9 @@
       <c r="C52" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -6506,6 +8240,9 @@
       <c r="C53" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -6519,6 +8256,9 @@
       <c r="C54" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -6532,6 +8272,9 @@
       <c r="C55" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -6545,6 +8288,9 @@
       <c r="C56" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -6556,6 +8302,9 @@
         <v>1</v>
       </c>
       <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6564,13 +8313,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6594,6 +8343,11 @@
           <t>Session 2</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6607,6 +8361,9 @@
       <c r="C2" t="n">
         <v>0.6785714285714286</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6620,6 +8377,9 @@
       <c r="C3" t="n">
         <v>0.6071428571428571</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6633,6 +8393,9 @@
       <c r="C4" t="n">
         <v>0.6785714285714286</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6645,6 +8408,9 @@
       </c>
       <c r="C5" t="n">
         <v>0.6071428571428571</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/VR Karting/Results/2271.xlsx
+++ b/VR Karting/Results/2271.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="2160" windowWidth="21700" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="2160" windowWidth="21700" windowHeight="17440" tabRatio="600" firstSheet="1" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,8 +13,13 @@
     <sheet name="Session 2" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Mini 3" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Session 3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Word Accuracies" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Contrast Accuracies" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Session 4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Mini 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MID" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Session 5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mini 5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Contrast Accuracies" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1950,6 +1955,5179 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.244701</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4.694122</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.13739</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.439476</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2.326782</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.606422</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.8322372</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.9194412</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.686821</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.4311981</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.211426</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.8996887</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.9869385000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.8097382</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.439804</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.190628</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.9967651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.493088</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.251251</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.7680359</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.6749268</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.16713</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.6060944</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.8070526</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.7242432</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.5754242000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.129318</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.93811</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.7319336</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.600861</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.16217</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.141754</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.079529</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.980408</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.8694458</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.8363953</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.817322</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.8432312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.7909241</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.8364258</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.9400635000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.9544067000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.8921204</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.5729675</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5338745</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.6385497999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.8009033</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.9822388</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.7706299</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.153656</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.4053345</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.9367371</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.9544067000000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.9385071</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.760376</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.6371154999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>5.411957</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.135208</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>3.34906</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.041245</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.246437</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.4270401</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.305382</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.7430191</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>3.119972</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.827194</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2.254936</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.7004547</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.828674</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2.315842</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.531906</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2.108643</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.422409</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.3348236</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2.018692</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.625229</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.224869</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2.239517</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.573181</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.8711548</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.352905</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>3.850708</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.388199</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>4.697983</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.338898</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.6794434</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.9702911</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.9702759</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.584686</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.3701477</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>3.291443</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.098907</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>3.953522</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.29126</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.9236755</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.785248</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.051758</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.069733</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>5.194641</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.9708252000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.439392</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>2.019623</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>2.064911</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.8287659000000001</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.9412231</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.9038086</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.463165</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.75293</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.406494</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.179474</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>3.011108</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.56311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="inlineStr"/>
+      <c r="F57" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -5909,7 +11087,7 @@
   </sheetPr>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -7382,738 +12560,597 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.648926</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.5</v>
+        <v>1.639893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.5</v>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
+        <v>2.528564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.5</v>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>1.551758</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.5</v>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.5</v>
+        <v>1.018799</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.5</v>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
+        <v>1.018555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
+        <v>1.560791</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.5</v>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.5</v>
+        <v>1.083496</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.5</v>
+        <v>2.176025</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.5</v>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
+        <v>1.418945</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
+        <v>1.586182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.5</v>
+        <v>1.264404</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>0.9289551</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.5</v>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>2.210449</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.5</v>
+        <v>1.074707</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>1.427734</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.5</v>
+        <v>0.8193359</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.5</v>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
+        <v>1.444824</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
+        <v>0.5249023</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
+        <v>1.467773</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
+        <v>1.191406</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0.5</v>
+        <v>1.283447</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0.5</v>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
+        <v>1.495117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
+        <v>1.197266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0.5</v>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
+        <v>1.29248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0.5</v>
+        <v>1.252441</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0.5</v>
+        <v>0.7536621</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0.5</v>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0.5</v>
+        <v>1.268799</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0.5</v>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0.5</v>
+        <v>0.6508789</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.5</v>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>0.8261719</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
+        <v>0.8098145</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.5</v>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0.5</v>
+        <v>0.9841309</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0.5</v>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0.5</v>
+        <v>1.761963</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0</v>
+        <v>0.4702148</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0.5</v>
+        <v>0.7258301</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
+        <v>1.904785</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0.5</v>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0.5</v>
+        <v>1.740479</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0.5</v>
+        <v>1.560059</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0.5</v>
+        <v>1.051514</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
+        <v>1.061279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0</v>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0.5</v>
+        <v>0.8044434</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0.5</v>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
+        <v>1.901123</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.5</v>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
+        <v>1.465576</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.5</v>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0.5</v>
+        <v>0.7436523</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.5</v>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
+        <v>1.471191</v>
       </c>
     </row>
     <row r="46">
@@ -8122,46 +13159,37 @@
           <t>sat</t>
         </is>
       </c>
-      <c r="B46" s="0" t="n">
-        <v>0.5</v>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
+        <v>2.410156</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
+        <v>0.4746094</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.5</v>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
+        <v>0.8056641</v>
       </c>
     </row>
     <row r="49">
@@ -8170,146 +13198,93 @@
           <t>shooed</t>
         </is>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
+        <v>1.531738</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
+        <v>0.2739258</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0</v>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0</v>
+        <v>2.528564</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0.5</v>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
+        <v>0.4089355</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>0.5</v>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
+        <v>0.4829102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>0</v>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>0</v>
+        <v>0.8937988</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="inlineStr">
-        <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
+        <v>1.092285</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8319,101 +13294,95 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5</v>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5714285714285714</v>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7857142857142857</v>
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8571428571428571</v>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VR Karting/Results/2271.xlsx
+++ b/VR Karting/Results/2271.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kaist-my.sharepoint.com/personal/haeun5_office_kaist_ac_kr/Documents/석사논문/VRPT 공유 자료/실험결과파일 Raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forclass/Source/Masters/VR Karting/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FD2F8B3DF6794A4689E4BD5B5526AAEC8C4CB0F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CBBD6DF-9767-5941-8FBE-0B2C4BF086F9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA43540-08B2-B74F-BCD6-F9D1DF523456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="2560" windowWidth="21700" windowHeight="17440" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="760" windowWidth="21700" windowHeight="17440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="85">
   <si>
     <t>met</t>
   </si>
@@ -1928,7 +1928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -6551,15 +6551,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -6569,8 +6569,11 @@
       <c r="C1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -6580,8 +6583,11 @@
       <c r="C2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -6591,8 +6597,11 @@
       <c r="C3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -6602,8 +6611,11 @@
       <c r="C4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -6613,8 +6625,11 @@
       <c r="C5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -6624,8 +6639,11 @@
       <c r="C6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -6635,8 +6653,11 @@
       <c r="C7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -6646,8 +6667,11 @@
       <c r="C8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -6657,8 +6681,11 @@
       <c r="C9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -6668,8 +6695,11 @@
       <c r="C10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -6679,8 +6709,11 @@
       <c r="C11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -6690,8 +6723,11 @@
       <c r="C12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -6701,8 +6737,11 @@
       <c r="C13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -6712,8 +6751,11 @@
       <c r="C14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -6723,8 +6765,11 @@
       <c r="C15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -6734,8 +6779,11 @@
       <c r="C16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -6745,8 +6793,11 @@
       <c r="C17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -6756,8 +6807,11 @@
       <c r="C18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -6767,8 +6821,11 @@
       <c r="C19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -6778,8 +6835,11 @@
       <c r="C20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -6789,8 +6849,11 @@
       <c r="C21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -6800,8 +6863,11 @@
       <c r="C22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -6811,8 +6877,11 @@
       <c r="C23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -6822,8 +6891,11 @@
       <c r="C24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -6833,8 +6905,11 @@
       <c r="C25" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -6844,8 +6919,11 @@
       <c r="C26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -6855,8 +6933,11 @@
       <c r="C27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -6866,8 +6947,11 @@
       <c r="C28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -6877,8 +6961,11 @@
       <c r="C29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -6888,8 +6975,11 @@
       <c r="C30" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -6899,8 +6989,11 @@
       <c r="C31" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -6910,8 +7003,11 @@
       <c r="C32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -6921,8 +7017,11 @@
       <c r="C33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -6932,8 +7031,11 @@
       <c r="C34" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -6943,8 +7045,11 @@
       <c r="C35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -6954,8 +7059,11 @@
       <c r="C36" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -6965,8 +7073,11 @@
       <c r="C37" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -6976,8 +7087,11 @@
       <c r="C38" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -6987,8 +7101,11 @@
       <c r="C39" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -6998,8 +7115,11 @@
       <c r="C40" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -7009,8 +7129,11 @@
       <c r="C41" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -7020,8 +7143,11 @@
       <c r="C42" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -7031,8 +7157,11 @@
       <c r="C43" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -7042,8 +7171,11 @@
       <c r="C44" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -7053,8 +7185,11 @@
       <c r="C45" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -7064,8 +7199,11 @@
       <c r="C46" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -7075,8 +7213,11 @@
       <c r="C47" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -7086,8 +7227,11 @@
       <c r="C48" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -7097,8 +7241,11 @@
       <c r="C49" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -7108,8 +7255,11 @@
       <c r="C50" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -7119,8 +7269,11 @@
       <c r="C51" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -7130,8 +7283,11 @@
       <c r="C52" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -7141,8 +7297,11 @@
       <c r="C53" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -7152,8 +7311,11 @@
       <c r="C54" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -7163,8 +7325,11 @@
       <c r="C55" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -7174,8 +7339,11 @@
       <c r="C56" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -7185,8 +7353,11 @@
       <c r="C57" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -7196,8 +7367,11 @@
       <c r="C58" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -7207,8 +7381,11 @@
       <c r="C59" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -7218,8 +7395,11 @@
       <c r="C60" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -7229,8 +7409,11 @@
       <c r="C61" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -7240,8 +7423,11 @@
       <c r="C62" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -7251,8 +7437,11 @@
       <c r="C63" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -7262,8 +7451,11 @@
       <c r="C64" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -7273,8 +7465,11 @@
       <c r="C65" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -7284,8 +7479,11 @@
       <c r="C66" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -7295,8 +7493,11 @@
       <c r="C67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -7306,8 +7507,11 @@
       <c r="C68" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -7317,8 +7521,11 @@
       <c r="C69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -7328,8 +7535,11 @@
       <c r="C70" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -7339,8 +7549,11 @@
       <c r="C71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -7350,8 +7563,11 @@
       <c r="C72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -7361,8 +7577,11 @@
       <c r="C73" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -7372,8 +7591,11 @@
       <c r="C74" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -7383,8 +7605,11 @@
       <c r="C75" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -7394,8 +7619,11 @@
       <c r="C76" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>67</v>
       </c>
@@ -7405,8 +7633,11 @@
       <c r="C77" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -7416,8 +7647,11 @@
       <c r="C78" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -7427,8 +7661,11 @@
       <c r="C79" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>59</v>
       </c>
@@ -7438,8 +7675,11 @@
       <c r="C80" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -7449,8 +7689,11 @@
       <c r="C81" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>61</v>
       </c>
@@ -7460,8 +7703,11 @@
       <c r="C82" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>65</v>
       </c>
@@ -7471,8 +7717,11 @@
       <c r="C83" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>63</v>
       </c>
@@ -7482,8 +7731,11 @@
       <c r="C84" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>56</v>
       </c>
@@ -7493,8 +7745,11 @@
       <c r="C85" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>59</v>
       </c>
@@ -7504,8 +7759,11 @@
       <c r="C86" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>66</v>
       </c>
@@ -7515,8 +7773,11 @@
       <c r="C87" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>64</v>
       </c>
@@ -7526,8 +7787,11 @@
       <c r="C88" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>62</v>
       </c>
@@ -7537,8 +7801,11 @@
       <c r="C89" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>56</v>
       </c>
@@ -7548,8 +7815,11 @@
       <c r="C90" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>64</v>
       </c>
@@ -7559,8 +7829,11 @@
       <c r="C91" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>61</v>
       </c>
@@ -7570,8 +7843,11 @@
       <c r="C92" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>58</v>
       </c>
@@ -7581,8 +7857,11 @@
       <c r="C93" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>62</v>
       </c>
@@ -7592,8 +7871,11 @@
       <c r="C94" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>63</v>
       </c>
@@ -7603,8 +7885,11 @@
       <c r="C95" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>67</v>
       </c>
@@ -7614,8 +7899,11 @@
       <c r="C96" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>63</v>
       </c>
@@ -7625,8 +7913,11 @@
       <c r="C97" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>62</v>
       </c>
@@ -7636,8 +7927,11 @@
       <c r="C98" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>62</v>
       </c>
@@ -7647,8 +7941,11 @@
       <c r="C99" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>65</v>
       </c>
@@ -7658,8 +7955,11 @@
       <c r="C100" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -7669,8 +7969,11 @@
       <c r="C101" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>56</v>
       </c>
@@ -7680,8 +7983,11 @@
       <c r="C102" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -7691,8 +7997,11 @@
       <c r="C103" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -7702,8 +8011,11 @@
       <c r="C104" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>58</v>
       </c>
@@ -7713,8 +8025,11 @@
       <c r="C105" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>58</v>
       </c>
@@ -7724,8 +8039,11 @@
       <c r="C106" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>64</v>
       </c>
@@ -7735,8 +8053,11 @@
       <c r="C107" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>68</v>
       </c>
@@ -7746,8 +8067,11 @@
       <c r="C108" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>61</v>
       </c>
@@ -7757,8 +8081,11 @@
       <c r="C109" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>56</v>
       </c>
@@ -7768,8 +8095,11 @@
       <c r="C110" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>67</v>
       </c>
@@ -7779,8 +8109,11 @@
       <c r="C111" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>61</v>
       </c>
@@ -7790,8 +8123,11 @@
       <c r="C112" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>67</v>
       </c>
@@ -7801,8 +8137,11 @@
       <c r="C113" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>68</v>
       </c>
@@ -7812,8 +8151,11 @@
       <c r="C114" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>59</v>
       </c>
@@ -7823,8 +8165,11 @@
       <c r="C115" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>59</v>
       </c>
@@ -7834,8 +8179,11 @@
       <c r="C116" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>64</v>
       </c>
@@ -7845,8 +8193,11 @@
       <c r="C117" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>65</v>
       </c>
@@ -7856,8 +8207,11 @@
       <c r="C118" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>63</v>
       </c>
@@ -7867,8 +8221,11 @@
       <c r="C119" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -7878,8 +8235,11 @@
       <c r="C120" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>63</v>
       </c>
@@ -7889,8 +8249,11 @@
       <c r="C121" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>66</v>
       </c>
@@ -7900,8 +8263,11 @@
       <c r="C122" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>67</v>
       </c>
@@ -7911,8 +8277,11 @@
       <c r="C123" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -7922,8 +8291,11 @@
       <c r="C124" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>62</v>
       </c>
@@ -7933,8 +8305,11 @@
       <c r="C125" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -7944,8 +8319,11 @@
       <c r="C126" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>64</v>
       </c>
@@ -7955,8 +8333,11 @@
       <c r="C127" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>67</v>
       </c>
@@ -7966,8 +8347,11 @@
       <c r="C128" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>63</v>
       </c>
@@ -7977,8 +8361,11 @@
       <c r="C129" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>65</v>
       </c>
@@ -7988,8 +8375,11 @@
       <c r="C130" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>61</v>
       </c>
@@ -7999,8 +8389,11 @@
       <c r="C131" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>61</v>
       </c>
@@ -8010,8 +8403,11 @@
       <c r="C132" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -8021,8 +8417,11 @@
       <c r="C133" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -8032,8 +8431,11 @@
       <c r="C134" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>66</v>
       </c>
@@ -8043,8 +8445,11 @@
       <c r="C135" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>58</v>
       </c>
@@ -8054,8 +8459,11 @@
       <c r="C136" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>62</v>
       </c>
@@ -8065,8 +8473,11 @@
       <c r="C137" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>68</v>
       </c>
@@ -8076,8 +8487,11 @@
       <c r="C138" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>56</v>
       </c>
@@ -8087,8 +8501,11 @@
       <c r="C139" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>64</v>
       </c>
@@ -8098,8 +8515,11 @@
       <c r="C140" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -8109,8 +8529,11 @@
       <c r="C141" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>58</v>
       </c>
@@ -8120,8 +8543,11 @@
       <c r="C142" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>68</v>
       </c>
@@ -8131,8 +8557,11 @@
       <c r="C143" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>56</v>
       </c>
@@ -8141,6 +8570,9 @@
       </c>
       <c r="C144" t="s">
         <v>70</v>
+      </c>
+      <c r="D144" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/VR Karting/Results/2271.xlsx
+++ b/VR Karting/Results/2271.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11340" yWindow="760" windowWidth="21700" windowHeight="17440" tabRatio="600" firstSheet="4" activeTab="13" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11340" yWindow="760" windowWidth="16660" windowHeight="17440" tabRatio="600" firstSheet="13" activeTab="18" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,9 +20,14 @@
     <sheet name="Mini 5" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Session 6" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Mini 6" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Word Accuracies" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Contrast Accuracies" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Evaluation Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Session 7" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Mini 7" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Session 8" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Mini 8" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="POST" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Word Accuracies" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Contrast Accuracies" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7914,7 +7919,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -8011,1451 +8016,1472 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Session 5</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Session 6</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.091923</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
+        <v>1.157303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.5</v>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.5</v>
+        <v>1.40432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.5</v>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
+        <v>1.7523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.5</v>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
+        <v>2.02998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.5</v>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.5</v>
+        <v>1.032188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
+        <v>1.202705</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.5</v>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0.5</v>
+        <v>1.132523</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.5</v>
+        <v>0.9415054</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.5</v>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.5</v>
+        <v>1.169144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
+        <v>1.337502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.5</v>
+        <v>0.7202148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
+        <v>0.9641495</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.5</v>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
+        <v>0.7660828</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
+        <v>1.183121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4808502</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0</v>
+        <v>1.491165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.5</v>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
+        <v>1.155838</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>1</v>
+        <v>0.8647003</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0.5</v>
+        <v>1.201797</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>1</v>
+        <v>0.9054565</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>1</v>
+        <v>0.5053406</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0.5</v>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>1</v>
+        <v>1.353333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0.5</v>
+        <v>1.114273</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0.5</v>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
+        <v>0.9194641</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>1</v>
+        <v>0.7872314</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>1</v>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>1</v>
+        <v>1.520859</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0.5</v>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>0</v>
+        <v>1.418137</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0.5</v>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>0</v>
+        <v>1.541214</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.5</v>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>0.5</v>
+        <v>2.034714</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>0.5</v>
+        <v>1.21907</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.5</v>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>1</v>
+        <v>1.322021</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0.5</v>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>1</v>
+        <v>1.569672</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>1</v>
+        <v>1.328705</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>1</v>
+        <v>1.176361</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>0.5</v>
+        <v>1.305939</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0.5</v>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>1</v>
+        <v>1.883087</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>0.5</v>
+        <v>1.38266</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>1</v>
+        <v>1.323822</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>1</v>
+        <v>0.7875061</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0</v>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>0.5</v>
+        <v>1.564453</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0.5</v>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>0.5</v>
+        <v>1.066223</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.5</v>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>1</v>
+        <v>1.4151</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.5</v>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>1</v>
+        <v>0.6273193</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.5</v>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>0.5</v>
+        <v>1.373077</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0.5</v>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>1</v>
+        <v>0.8138428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>1</v>
+        <v>0.7278748</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.5</v>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>0.5</v>
+        <v>1.061768</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0</v>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>0.5</v>
+        <v>1.049927</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>1</v>
+        <v>0.9963684</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0</v>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>0.5</v>
+        <v>1.061432</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0.5</v>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>0</v>
+        <v>0.6982727</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>0.5</v>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>1</v>
+        <v>1.223999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>0</v>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>1</v>
+        <v>1.073914</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>1</v>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>0.5</v>
+        <v>1.457397</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>0.5</v>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>1</v>
+        <v>1.17865</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.702892</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.517628</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.535152</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.5867653</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.5213089</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.003456</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.7951813</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.9944611</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.391876</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.8564148</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.7775725999999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.267632</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.452827</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.673126</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.522354</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.8441467</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.763855</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.7548065</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.947403</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.072098</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.03179932</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.7258606</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.7518311</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.4191742</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.9691315</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.5388641</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.4829559</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.339859</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.199493</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.148285</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.10939</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.6027985</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.4457855</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.6865845</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.7694396999999999</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.244415</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.7233276</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.3693237</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.3522949</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.859436</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.036926</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.2817383</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.5856934</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.9406433</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.16745</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.706696</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.8558654999999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.4967651</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
           <t>would</t>
         </is>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="0" t="inlineStr"/>
-      <c r="F57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>1</v>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.019897</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.6193237</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.671051</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.8439025999999999</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.4505</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.403107</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.5221557999999999</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.7365723</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9465,153 +9491,96 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Session 5</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Session 6</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8214285714285714</v>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.6071428571428571</v>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.7857142857142857</v>
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6428571428571429</v>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9621,189 +9590,4470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.359589</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bait</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.8333333333333334</v>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.75</v>
+        <v>1.318703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bit</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.75</v>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>2.053688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>boat</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.5833333333333334</v>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.93367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bought</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.3333333333333333</v>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.254402</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>had</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.1666666666666667</v>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>1.00177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>head</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.5</v>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.5</v>
+        <v>1.399605</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>heed</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.5833333333333334</v>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.977936</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>hid</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.5</v>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.5833333333333334</v>
+        <v>1.175812</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>hod</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.1666666666666667</v>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.75</v>
+        <v>1.187653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>hood</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.5</v>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.5833333333333334</v>
+        <v>2.439972</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>hud</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.8333333333333334</v>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.546082</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.273819</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.103577</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.309799</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.8774109</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.210754</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.9345398</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.125732</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.163467</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.627228</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.044785</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.32373</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.63179</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.01207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.8088379</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.471863</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.861084</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.6110535</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.7861023</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.362213</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.058868</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.358551</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.8590393</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.31955</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.7991028</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.331879</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2.438751</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>3.030945</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.144287</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.3343811</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.225647</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.552734</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.284424</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.572723</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.306335</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.940033</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.025024</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.453796</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.7532043</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.5233765</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.058258</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.286469</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.085022</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.178192</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.9589233</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.640408</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.155224</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.378895</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.5909958</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.204212</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.142185</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.115158</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.321526</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.7876204999999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.171669</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.745018</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.28363</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.219406</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.8238068</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.5623093</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.102036</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.881393</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2.0298</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.8059082</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.6660919</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.7871246</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.316803</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.377319</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.145065</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.9704895</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.9594269</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.82074</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.455688</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.5981903</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.4862671</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.10228</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.390518</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>2.430984</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.099182</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.8036499</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>2.051239</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.9807739</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.575714</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.4812012</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.319641</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.686737</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.8390198</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.059998</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.7042542000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.8497925</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.662506</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.552979</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.162384</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.5035706</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.497101</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.8082886</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.400513</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.7964478</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.026672</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.544403</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.847412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
           <t>who'd</t>
         </is>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.3333333333333333</v>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12703,6 +16953,2188 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="inlineStr"/>
+      <c r="F57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
